--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.63233633333333</v>
+        <v>24.290427</v>
       </c>
       <c r="H2">
-        <v>67.897009</v>
+        <v>72.871281</v>
       </c>
       <c r="I2">
-        <v>0.0374450040810979</v>
+        <v>0.04034614150728122</v>
       </c>
       <c r="J2">
-        <v>0.0374450040810979</v>
+        <v>0.04034614150728123</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N2">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q2">
-        <v>152.6491411756534</v>
+        <v>153.171691936242</v>
       </c>
       <c r="R2">
-        <v>1373.842270580881</v>
+        <v>1378.545227426178</v>
       </c>
       <c r="S2">
-        <v>0.0003929003443860706</v>
+        <v>0.0005471544045899931</v>
       </c>
       <c r="T2">
-        <v>0.0003929003443860707</v>
+        <v>0.0005471544045899931</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.63233633333333</v>
+        <v>24.290427</v>
       </c>
       <c r="H3">
-        <v>67.897009</v>
+        <v>72.871281</v>
       </c>
       <c r="I3">
-        <v>0.0374450040810979</v>
+        <v>0.04034614150728122</v>
       </c>
       <c r="J3">
-        <v>0.0374450040810979</v>
+        <v>0.04034614150728123</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P3">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q3">
-        <v>4131.118426057158</v>
+        <v>4433.772504905023</v>
       </c>
       <c r="R3">
-        <v>37180.06583451443</v>
+        <v>39903.95254414521</v>
       </c>
       <c r="S3">
-        <v>0.01063299694840587</v>
+        <v>0.01583816255041826</v>
       </c>
       <c r="T3">
-        <v>0.01063299694840587</v>
+        <v>0.01583816255041826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.63233633333333</v>
+        <v>24.290427</v>
       </c>
       <c r="H4">
-        <v>67.897009</v>
+        <v>72.871281</v>
       </c>
       <c r="I4">
-        <v>0.0374450040810979</v>
+        <v>0.04034614150728122</v>
       </c>
       <c r="J4">
-        <v>0.0374450040810979</v>
+        <v>0.04034614150728123</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N4">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q4">
-        <v>5638.45990889552</v>
+        <v>3094.512784229811</v>
       </c>
       <c r="R4">
-        <v>50746.13918005968</v>
+        <v>27850.6150580683</v>
       </c>
       <c r="S4">
-        <v>0.0145127108017129</v>
+        <v>0.01105410718226036</v>
       </c>
       <c r="T4">
-        <v>0.0145127108017129</v>
+        <v>0.01105410718226036</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.63233633333333</v>
+        <v>24.290427</v>
       </c>
       <c r="H5">
-        <v>67.897009</v>
+        <v>72.871281</v>
       </c>
       <c r="I5">
-        <v>0.0374450040810979</v>
+        <v>0.04034614150728122</v>
       </c>
       <c r="J5">
-        <v>0.0374450040810979</v>
+        <v>0.04034614150728123</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N5">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q5">
-        <v>395.1705807844351</v>
+        <v>471.8172864352359</v>
       </c>
       <c r="R5">
-        <v>3556.535227059916</v>
+        <v>4246.355577917124</v>
       </c>
       <c r="S5">
-        <v>0.001017121066556066</v>
+        <v>0.001685408727757581</v>
       </c>
       <c r="T5">
-        <v>0.001017121066556066</v>
+        <v>0.001685408727757581</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.63233633333333</v>
+        <v>24.290427</v>
       </c>
       <c r="H6">
-        <v>67.897009</v>
+        <v>72.871281</v>
       </c>
       <c r="I6">
-        <v>0.0374450040810979</v>
+        <v>0.04034614150728122</v>
       </c>
       <c r="J6">
-        <v>0.0374450040810979</v>
+        <v>0.04034614150728123</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N6">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q6">
-        <v>4230.68721705137</v>
+        <v>3141.31955450663</v>
       </c>
       <c r="R6">
-        <v>38076.18495346233</v>
+        <v>28271.87599055967</v>
       </c>
       <c r="S6">
-        <v>0.010889274920037</v>
+        <v>0.01122130864225503</v>
       </c>
       <c r="T6">
-        <v>0.010889274920037</v>
+        <v>0.01122130864225503</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1655.512787</v>
       </c>
       <c r="I7">
-        <v>0.9130105136961889</v>
+        <v>0.9165963909899637</v>
       </c>
       <c r="J7">
-        <v>0.9130105136961888</v>
+        <v>0.9165963909899638</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N7">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q7">
-        <v>3721.999081592276</v>
+        <v>3479.802895284267</v>
       </c>
       <c r="R7">
-        <v>33497.99173433048</v>
+        <v>31318.2260575584</v>
       </c>
       <c r="S7">
-        <v>0.009579973458740187</v>
+        <v>0.01243042664862863</v>
       </c>
       <c r="T7">
-        <v>0.009579973458740187</v>
+        <v>0.01243042664862863</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1655.512787</v>
       </c>
       <c r="I8">
-        <v>0.9130105136961889</v>
+        <v>0.9165963909899637</v>
       </c>
       <c r="J8">
-        <v>0.9130105136961888</v>
+        <v>0.9165963909899638</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P8">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q8">
         <v>100727.8447118184</v>
@@ -948,10 +948,10 @@
         <v>906550.6024063659</v>
       </c>
       <c r="S8">
-        <v>0.2592612350894263</v>
+        <v>0.3598163812270839</v>
       </c>
       <c r="T8">
-        <v>0.2592612350894263</v>
+        <v>0.3598163812270839</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1655.512787</v>
       </c>
       <c r="I9">
-        <v>0.9130105136961889</v>
+        <v>0.9165963909899637</v>
       </c>
       <c r="J9">
-        <v>0.9130105136961888</v>
+        <v>0.9165963909899638</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N9">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q9">
-        <v>137480.9084471363</v>
+        <v>70302.11920972576</v>
       </c>
       <c r="R9">
-        <v>1237328.176024227</v>
+        <v>632719.0728875318</v>
       </c>
       <c r="S9">
-        <v>0.3538591560972696</v>
+        <v>0.2511306997485137</v>
       </c>
       <c r="T9">
-        <v>0.3538591560972696</v>
+        <v>0.2511306997485137</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1655.512787</v>
       </c>
       <c r="I10">
-        <v>0.9130105136961889</v>
+        <v>0.9165963909899637</v>
       </c>
       <c r="J10">
-        <v>0.9130105136961888</v>
+        <v>0.9165963909899638</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N10">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q10">
-        <v>9635.327964665556</v>
+        <v>10718.89419401279</v>
       </c>
       <c r="R10">
-        <v>86717.95168198999</v>
+        <v>96470.04774611515</v>
       </c>
       <c r="S10">
-        <v>0.02480016360677457</v>
+        <v>0.0382896480181826</v>
       </c>
       <c r="T10">
-        <v>0.02480016360677457</v>
+        <v>0.0382896480181826</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1655.512787</v>
       </c>
       <c r="I11">
-        <v>0.9130105136961889</v>
+        <v>0.9165963909899637</v>
       </c>
       <c r="J11">
-        <v>0.9130105136961888</v>
+        <v>0.9165963909899638</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N11">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q11">
-        <v>103155.6012375448</v>
+        <v>71365.49020647613</v>
       </c>
       <c r="R11">
-        <v>928400.4111379029</v>
+        <v>642289.4118582851</v>
       </c>
       <c r="S11">
-        <v>0.2655099854439782</v>
+        <v>0.254929235347555</v>
       </c>
       <c r="T11">
-        <v>0.2655099854439781</v>
+        <v>0.254929235347555</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1065133333333333</v>
+        <v>0.741047</v>
       </c>
       <c r="H12">
-        <v>0.31954</v>
+        <v>2.223141</v>
       </c>
       <c r="I12">
-        <v>0.0001762253857761838</v>
+        <v>0.001230871203933394</v>
       </c>
       <c r="J12">
-        <v>0.0001762253857761838</v>
+        <v>0.001230871203933394</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N12">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q12">
-        <v>0.7184043493177777</v>
+        <v>4.672928260762</v>
       </c>
       <c r="R12">
-        <v>6.46563914386</v>
+        <v>42.056354346858</v>
       </c>
       <c r="S12">
-        <v>1.849085517818981E-06</v>
+        <v>1.669246613318904E-05</v>
       </c>
       <c r="T12">
-        <v>1.849085517818981E-06</v>
+        <v>1.669246613318904E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1065133333333333</v>
+        <v>0.741047</v>
       </c>
       <c r="H13">
-        <v>0.31954</v>
+        <v>2.223141</v>
       </c>
       <c r="I13">
-        <v>0.0001762253857761838</v>
+        <v>0.001230871203933394</v>
       </c>
       <c r="J13">
-        <v>0.0001762253857761838</v>
+        <v>0.001230871203933394</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P13">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q13">
-        <v>19.44205792426445</v>
+        <v>135.2645555980697</v>
       </c>
       <c r="R13">
-        <v>174.97852131838</v>
+        <v>1217.381000382627</v>
       </c>
       <c r="S13">
-        <v>5.004149512526555E-05</v>
+        <v>0.000483187176721916</v>
       </c>
       <c r="T13">
-        <v>5.004149512526556E-05</v>
+        <v>0.000483187176721916</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1065133333333333</v>
+        <v>0.741047</v>
       </c>
       <c r="H14">
-        <v>0.31954</v>
+        <v>2.223141</v>
       </c>
       <c r="I14">
-        <v>0.0001762253857761838</v>
+        <v>0.001230871203933394</v>
       </c>
       <c r="J14">
-        <v>0.0001762253857761838</v>
+        <v>0.001230871203933394</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N14">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q14">
-        <v>26.53597714869111</v>
+        <v>94.40671484347101</v>
       </c>
       <c r="R14">
-        <v>238.82379433822</v>
+        <v>849.6604335912391</v>
       </c>
       <c r="S14">
-        <v>6.830038138468426E-05</v>
+        <v>0.0003372362686375375</v>
       </c>
       <c r="T14">
-        <v>6.830038138468426E-05</v>
+        <v>0.0003372362686375375</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1065133333333333</v>
+        <v>0.741047</v>
       </c>
       <c r="H15">
-        <v>0.31954</v>
+        <v>2.223141</v>
       </c>
       <c r="I15">
-        <v>0.0001762253857761838</v>
+        <v>0.001230871203933394</v>
       </c>
       <c r="J15">
-        <v>0.0001762253857761838</v>
+        <v>0.001230871203933394</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N15">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q15">
-        <v>1.859769807884445</v>
+        <v>14.39409791606267</v>
       </c>
       <c r="R15">
-        <v>16.73792827096</v>
+        <v>129.546881244564</v>
       </c>
       <c r="S15">
-        <v>4.786821546252875E-06</v>
+        <v>5.141807846682038E-05</v>
       </c>
       <c r="T15">
-        <v>4.786821546252875E-06</v>
+        <v>5.141807846682038E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1065133333333333</v>
+        <v>0.741047</v>
       </c>
       <c r="H16">
-        <v>0.31954</v>
+        <v>2.223141</v>
       </c>
       <c r="I16">
-        <v>0.0001762253857761838</v>
+        <v>0.001230871203933394</v>
       </c>
       <c r="J16">
-        <v>0.0001762253857761838</v>
+        <v>0.001230871203933394</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N16">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q16">
-        <v>19.91065310898445</v>
+        <v>95.83468548776335</v>
       </c>
       <c r="R16">
-        <v>179.19587798086</v>
+        <v>862.5121693898701</v>
       </c>
       <c r="S16">
-        <v>5.124760220216215E-05</v>
+        <v>0.0003423372139739316</v>
       </c>
       <c r="T16">
-        <v>5.124760220216214E-05</v>
+        <v>0.0003423372139739316</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.30256466666667</v>
+        <v>24.947199</v>
       </c>
       <c r="H17">
-        <v>87.90769400000001</v>
+        <v>74.84159699999999</v>
       </c>
       <c r="I17">
-        <v>0.04848083898054929</v>
+        <v>0.04143703283043582</v>
       </c>
       <c r="J17">
-        <v>0.04848083898054929</v>
+        <v>0.04143703283043582</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N17">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q17">
-        <v>197.6380725671162</v>
+        <v>157.313195025354</v>
       </c>
       <c r="R17">
-        <v>1778.742653104046</v>
+        <v>1415.818755228186</v>
       </c>
       <c r="S17">
-        <v>0.0005086963881838348</v>
+        <v>0.0005619485328534188</v>
       </c>
       <c r="T17">
-        <v>0.0005086963881838348</v>
+        <v>0.0005619485328534188</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>29.30256466666667</v>
+        <v>24.947199</v>
       </c>
       <c r="H18">
-        <v>87.90769400000001</v>
+        <v>74.84159699999999</v>
       </c>
       <c r="I18">
-        <v>0.04848083898054929</v>
+        <v>0.04143703283043582</v>
       </c>
       <c r="J18">
-        <v>0.04848083898054929</v>
+        <v>0.04143703283043582</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P18">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q18">
-        <v>5348.646425287959</v>
+        <v>4553.654202974451</v>
       </c>
       <c r="R18">
-        <v>48137.81782759162</v>
+        <v>40982.88782677006</v>
       </c>
       <c r="S18">
-        <v>0.01376676610369386</v>
+        <v>0.01626639963717525</v>
       </c>
       <c r="T18">
-        <v>0.01376676610369386</v>
+        <v>0.01626639963717524</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>29.30256466666667</v>
+        <v>24.947199</v>
       </c>
       <c r="H19">
-        <v>87.90769400000001</v>
+        <v>74.84159699999999</v>
       </c>
       <c r="I19">
-        <v>0.04848083898054929</v>
+        <v>0.04143703283043582</v>
       </c>
       <c r="J19">
-        <v>0.04848083898054929</v>
+        <v>0.04143703283043582</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N19">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q19">
-        <v>7300.233332847627</v>
+        <v>3178.183168053207</v>
       </c>
       <c r="R19">
-        <v>65702.09999562864</v>
+        <v>28603.64851247886</v>
       </c>
       <c r="S19">
-        <v>0.0187899137098583</v>
+        <v>0.01135299151567729</v>
       </c>
       <c r="T19">
-        <v>0.0187899137098583</v>
+        <v>0.01135299151567729</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>29.30256466666667</v>
+        <v>24.947199</v>
       </c>
       <c r="H20">
-        <v>87.90769400000001</v>
+        <v>74.84159699999999</v>
       </c>
       <c r="I20">
-        <v>0.04848083898054929</v>
+        <v>0.04143703283043582</v>
       </c>
       <c r="J20">
-        <v>0.04848083898054929</v>
+        <v>0.04143703283043582</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N20">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q20">
-        <v>511.6357112785396</v>
+        <v>484.5744266389319</v>
       </c>
       <c r="R20">
-        <v>4604.721401506857</v>
+        <v>4361.169839750388</v>
       </c>
       <c r="S20">
-        <v>0.001316888163361722</v>
+        <v>0.001730979324805826</v>
       </c>
       <c r="T20">
-        <v>0.001316888163361722</v>
+        <v>0.001730979324805826</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>29.30256466666667</v>
+        <v>24.947199</v>
       </c>
       <c r="H21">
-        <v>87.90769400000001</v>
+        <v>74.84159699999999</v>
       </c>
       <c r="I21">
-        <v>0.04848083898054929</v>
+        <v>0.04143703283043582</v>
       </c>
       <c r="J21">
-        <v>0.04848083898054929</v>
+        <v>0.04143703283043582</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N21">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q21">
-        <v>5477.56024549275</v>
+        <v>3226.25551411131</v>
       </c>
       <c r="R21">
-        <v>49298.04220943475</v>
+        <v>29036.29962700179</v>
       </c>
       <c r="S21">
-        <v>0.01409857461545158</v>
+        <v>0.01152471381992404</v>
       </c>
       <c r="T21">
-        <v>0.01409857461545157</v>
+        <v>0.01152471381992404</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5363690000000001</v>
+        <v>0.234537</v>
       </c>
       <c r="H22">
-        <v>1.609107</v>
+        <v>0.7036110000000001</v>
       </c>
       <c r="I22">
-        <v>0.0008874178563878008</v>
+        <v>0.0003895634683858467</v>
       </c>
       <c r="J22">
-        <v>0.0008874178563878007</v>
+        <v>0.0003895634683858468</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N22">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q22">
-        <v>3.617667482373667</v>
+        <v>1.478954203302</v>
       </c>
       <c r="R22">
-        <v>32.55900734136301</v>
+        <v>13.310587829718</v>
       </c>
       <c r="S22">
-        <v>9.311436597362295E-06</v>
+        <v>5.283066970758613E-06</v>
       </c>
       <c r="T22">
-        <v>9.311436597362295E-06</v>
+        <v>5.283066970758613E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.5363690000000001</v>
+        <v>0.234537</v>
       </c>
       <c r="H23">
-        <v>1.609107</v>
+        <v>0.7036110000000001</v>
       </c>
       <c r="I23">
-        <v>0.0008874178563878008</v>
+        <v>0.0003895634683858467</v>
       </c>
       <c r="J23">
-        <v>0.0008874178563878007</v>
+        <v>0.0003895634683858468</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P23">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q23">
-        <v>97.9043359214477</v>
+        <v>42.81043317941301</v>
       </c>
       <c r="R23">
-        <v>881.1390232930291</v>
+        <v>385.2938986147171</v>
       </c>
       <c r="S23">
-        <v>0.0002519938664847302</v>
+        <v>0.0001529258884616334</v>
       </c>
       <c r="T23">
-        <v>0.0002519938664847302</v>
+        <v>0.0001529258884616334</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5363690000000001</v>
+        <v>0.234537</v>
       </c>
       <c r="H24">
-        <v>1.609107</v>
+        <v>0.7036110000000001</v>
       </c>
       <c r="I24">
-        <v>0.0008874178563878008</v>
+        <v>0.0003895634683858467</v>
       </c>
       <c r="J24">
-        <v>0.0008874178563878007</v>
+        <v>0.0003895634683858468</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N24">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q24">
-        <v>133.6271721280557</v>
+        <v>29.87916782504101</v>
       </c>
       <c r="R24">
-        <v>1202.644549152501</v>
+        <v>268.9125104253691</v>
       </c>
       <c r="S24">
-        <v>0.0003439401069936945</v>
+        <v>0.0001067332878176987</v>
       </c>
       <c r="T24">
-        <v>0.0003439401069936945</v>
+        <v>0.0001067332878176987</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.5363690000000001</v>
+        <v>0.234537</v>
       </c>
       <c r="H25">
-        <v>1.609107</v>
+        <v>0.7036110000000001</v>
       </c>
       <c r="I25">
-        <v>0.0008874178563878008</v>
+        <v>0.0003895634683858467</v>
       </c>
       <c r="J25">
-        <v>0.0008874178563878007</v>
+        <v>0.0003895634683858468</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N25">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q25">
-        <v>9.365239457518669</v>
+        <v>4.555647000716</v>
       </c>
       <c r="R25">
-        <v>84.28715511766802</v>
+        <v>41.00082300644401</v>
       </c>
       <c r="S25">
-        <v>2.410498860182239E-05</v>
+        <v>1.627351823753777E-05</v>
       </c>
       <c r="T25">
-        <v>2.410498860182239E-05</v>
+        <v>1.627351823753777E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.5363690000000001</v>
+        <v>0.234537</v>
       </c>
       <c r="H26">
-        <v>1.609107</v>
+        <v>0.7036110000000001</v>
       </c>
       <c r="I26">
-        <v>0.0008874178563878008</v>
+        <v>0.0003895634683858467</v>
       </c>
       <c r="J26">
-        <v>0.0008874178563878007</v>
+        <v>0.0003895634683858468</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N26">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q26">
-        <v>100.2640398455237</v>
+        <v>30.33111210253001</v>
       </c>
       <c r="R26">
-        <v>902.3763586097132</v>
+        <v>272.98000892277</v>
       </c>
       <c r="S26">
-        <v>0.0002580674577101913</v>
+        <v>0.0001083477068982183</v>
       </c>
       <c r="T26">
-        <v>0.0002580674577101913</v>
+        <v>0.0001083477068982183</v>
       </c>
     </row>
   </sheetData>
